--- a/test_cases/LS-S3-PE-10-01.xlsx
+++ b/test_cases/LS-S3-PE-10-01.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Desktop\UADE\MATERIAS 2° cuatrimestre\01 - TESTING DE APLICACIONES\trabajos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB869FD7-3EBA-44BC-B29A-835D67A9AF95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BF583DE-9817-45FA-824A-6E63B2BF3E38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{749B7381-1BFB-4E3B-A964-86E618A153B9}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="30">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -87,9 +87,6 @@
   </si>
   <si>
     <t>User Stories covered</t>
-  </si>
-  <si>
-    <t>US-1</t>
   </si>
   <si>
     <t>Automation Status</t>
@@ -404,122 +401,122 @@
   </cellStyleXfs>
   <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -840,8 +837,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8974EB1E-5BD1-45D2-8C72-34853B3396F7}">
   <dimension ref="B2:O22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4:L4"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15:E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -854,323 +851,349 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="2" t="s">
+      <c r="C2" s="39"/>
+      <c r="D2" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="2"/>
-      <c r="F2" s="1" t="s">
+      <c r="E2" s="40"/>
+      <c r="F2" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="1"/>
-      <c r="H2" s="2" t="s">
+      <c r="G2" s="39"/>
+      <c r="H2" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
-      <c r="M2" s="3"/>
+      <c r="I2" s="40"/>
+      <c r="J2" s="40"/>
+      <c r="K2" s="40"/>
+      <c r="L2" s="40"/>
+      <c r="M2" s="1"/>
     </row>
     <row r="3" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="1"/>
-      <c r="D3" s="2" t="s">
+      <c r="C3" s="39"/>
+      <c r="D3" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="2"/>
-      <c r="F3" s="1" t="s">
+      <c r="E3" s="40"/>
+      <c r="F3" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="1"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="4"/>
-      <c r="L3" s="4"/>
-      <c r="M3" s="5"/>
+      <c r="G3" s="39"/>
+      <c r="H3" s="41"/>
+      <c r="I3" s="41"/>
+      <c r="J3" s="41"/>
+      <c r="K3" s="41"/>
+      <c r="L3" s="41"/>
+      <c r="M3" s="2"/>
     </row>
     <row r="4" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="6"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="8" t="s">
+      <c r="C4" s="33"/>
+      <c r="D4" s="34"/>
+      <c r="E4" s="34"/>
+      <c r="F4" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="G4" s="8"/>
-      <c r="H4" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="I4" s="9"/>
-      <c r="J4" s="9"/>
-      <c r="K4" s="9"/>
-      <c r="L4" s="9"/>
-      <c r="M4" s="5"/>
+      <c r="G4" s="32"/>
+      <c r="H4" s="35" t="s">
+        <v>29</v>
+      </c>
+      <c r="I4" s="35"/>
+      <c r="J4" s="35"/>
+      <c r="K4" s="35"/>
+      <c r="L4" s="35"/>
+      <c r="M4" s="2"/>
     </row>
     <row r="6" spans="2:13" ht="60" x14ac:dyDescent="0.25">
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="11" t="s">
+      <c r="C6" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="12"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="13"/>
-      <c r="I6" s="13"/>
-      <c r="J6" s="13"/>
-      <c r="K6" s="14"/>
-      <c r="L6" s="14"/>
+      <c r="D6" s="36"/>
+      <c r="E6" s="37"/>
+      <c r="F6" s="37"/>
+      <c r="G6" s="37"/>
+      <c r="H6" s="37"/>
+      <c r="I6" s="37"/>
+      <c r="J6" s="37"/>
+      <c r="K6" s="5"/>
+      <c r="L6" s="5"/>
     </row>
     <row r="7" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B7" s="15"/>
-      <c r="C7" s="15"/>
-      <c r="D7" s="15"/>
-      <c r="E7" s="15"/>
-      <c r="F7" s="15"/>
-      <c r="G7" s="15"/>
-      <c r="H7" s="15"/>
-      <c r="I7" s="15"/>
-      <c r="J7" s="15"/>
-      <c r="K7" s="14"/>
-      <c r="L7" s="14"/>
+      <c r="B7" s="38"/>
+      <c r="C7" s="38"/>
+      <c r="D7" s="38"/>
+      <c r="E7" s="38"/>
+      <c r="F7" s="38"/>
+      <c r="G7" s="38"/>
+      <c r="H7" s="38"/>
+      <c r="I7" s="38"/>
+      <c r="J7" s="38"/>
+      <c r="K7" s="5"/>
+      <c r="L7" s="5"/>
     </row>
     <row r="8" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B8" s="16" t="s">
+      <c r="B8" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="C8" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="L8" s="14"/>
+      <c r="D8" s="32"/>
+      <c r="E8" s="32"/>
+      <c r="L8" s="5"/>
     </row>
     <row r="9" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B9" s="17">
+      <c r="B9" s="7">
         <v>1</v>
       </c>
-      <c r="C9" s="22" t="s">
+      <c r="C9" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="23"/>
-      <c r="E9" s="24"/>
-      <c r="L9" s="19"/>
+      <c r="D9" s="30"/>
+      <c r="E9" s="31"/>
+      <c r="L9" s="8"/>
     </row>
     <row r="10" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B10" s="17">
+      <c r="B10" s="7">
         <v>2</v>
       </c>
-      <c r="C10" s="18" t="s">
+      <c r="C10" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="D10" s="18"/>
-      <c r="E10" s="18"/>
-      <c r="L10" s="19"/>
+      <c r="D10" s="16"/>
+      <c r="E10" s="16"/>
+      <c r="L10" s="8"/>
     </row>
     <row r="11" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B11" s="20">
+      <c r="B11" s="9">
         <v>3</v>
       </c>
-      <c r="C11" s="22"/>
-      <c r="D11" s="23"/>
-      <c r="E11" s="24"/>
-      <c r="L11" s="19"/>
+      <c r="C11" s="29"/>
+      <c r="D11" s="30"/>
+      <c r="E11" s="31"/>
+      <c r="L11" s="8"/>
     </row>
     <row r="12" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B12" s="21"/>
-      <c r="C12" s="21"/>
-      <c r="D12" s="21"/>
-      <c r="E12" s="21"/>
+      <c r="B12" s="10"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
     </row>
     <row r="13" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B13" s="25" t="s">
+      <c r="B13" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="26"/>
-      <c r="D13" s="27" t="s">
+      <c r="C13" s="21"/>
+      <c r="D13" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13" s="23"/>
+      <c r="F13" s="23"/>
+      <c r="G13" s="23"/>
+      <c r="H13" s="23"/>
+      <c r="I13" s="23"/>
+      <c r="J13" s="23"/>
+      <c r="K13" s="23"/>
+    </row>
+    <row r="14" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B14" s="21"/>
+      <c r="C14" s="21"/>
+      <c r="D14" s="23"/>
+      <c r="E14" s="23"/>
+      <c r="F14" s="23"/>
+      <c r="G14" s="23"/>
+      <c r="H14" s="23"/>
+      <c r="I14" s="23"/>
+      <c r="J14" s="23"/>
+      <c r="K14" s="23"/>
+    </row>
+    <row r="15" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B15" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" s="24"/>
+      <c r="D15" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="E15" s="25"/>
+      <c r="F15" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="G15" s="24"/>
+      <c r="H15" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="I15" s="26"/>
+      <c r="J15" s="26"/>
+      <c r="K15" s="26"/>
+    </row>
+    <row r="16" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="I16" s="11"/>
+      <c r="J16" s="11"/>
+    </row>
+    <row r="17" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B17" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C17" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="D17" s="27"/>
+      <c r="E17" s="27"/>
+      <c r="F17" s="27"/>
+      <c r="G17" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="H17" s="28"/>
+      <c r="I17" s="28"/>
+      <c r="J17" s="28"/>
+      <c r="K17" s="28"/>
+      <c r="L17" s="28"/>
+      <c r="M17" s="28"/>
+      <c r="N17" s="28"/>
+      <c r="O17" s="28"/>
+    </row>
+    <row r="18" spans="2:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B18" s="7">
+        <v>1</v>
+      </c>
+      <c r="C18" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="E13" s="28"/>
-      <c r="F13" s="28"/>
-      <c r="G13" s="28"/>
-      <c r="H13" s="28"/>
-      <c r="I13" s="28"/>
-      <c r="J13" s="28"/>
-      <c r="K13" s="28"/>
-    </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B14" s="26"/>
-      <c r="C14" s="26"/>
-      <c r="D14" s="28"/>
-      <c r="E14" s="28"/>
-      <c r="F14" s="28"/>
-      <c r="G14" s="28"/>
-      <c r="H14" s="28"/>
-      <c r="I14" s="28"/>
-      <c r="J14" s="28"/>
-      <c r="K14" s="28"/>
-    </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B15" s="29" t="s">
-        <v>16</v>
-      </c>
-      <c r="C15" s="29"/>
-      <c r="D15" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="E15" s="30"/>
-      <c r="F15" s="29" t="s">
-        <v>18</v>
-      </c>
-      <c r="G15" s="29"/>
-      <c r="H15" s="31" t="s">
-        <v>19</v>
-      </c>
-      <c r="I15" s="31"/>
-      <c r="J15" s="31"/>
-      <c r="K15" s="31"/>
-    </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="I16" s="32"/>
-      <c r="J16" s="32"/>
-    </row>
-    <row r="17" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B17" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="C17" s="33" t="s">
-        <v>21</v>
-      </c>
-      <c r="D17" s="33"/>
-      <c r="E17" s="33"/>
-      <c r="F17" s="33"/>
-      <c r="G17" s="34" t="s">
-        <v>22</v>
-      </c>
-      <c r="H17" s="34"/>
-      <c r="I17" s="34"/>
-      <c r="J17" s="34"/>
-      <c r="K17" s="34"/>
-      <c r="L17" s="34"/>
-      <c r="M17" s="34"/>
-      <c r="N17" s="34"/>
-      <c r="O17" s="34"/>
-    </row>
-    <row r="18" spans="2:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B18" s="17">
-        <v>1</v>
-      </c>
-      <c r="C18" s="35" t="s">
+      <c r="D18" s="18"/>
+      <c r="E18" s="18"/>
+      <c r="F18" s="18"/>
+      <c r="G18" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="D18" s="35"/>
-      <c r="E18" s="35"/>
-      <c r="F18" s="35"/>
-      <c r="G18" s="36" t="s">
+      <c r="H18" s="19"/>
+      <c r="I18" s="19"/>
+      <c r="J18" s="19"/>
+      <c r="K18" s="19"/>
+      <c r="L18" s="19"/>
+      <c r="M18" s="19"/>
+      <c r="N18" s="19"/>
+      <c r="O18" s="19"/>
+    </row>
+    <row r="19" spans="2:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B19" s="7">
+        <v>2</v>
+      </c>
+      <c r="C19" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="H18" s="36"/>
-      <c r="I18" s="36"/>
-      <c r="J18" s="36"/>
-      <c r="K18" s="36"/>
-      <c r="L18" s="36"/>
-      <c r="M18" s="36"/>
-      <c r="N18" s="36"/>
-      <c r="O18" s="36"/>
-    </row>
-    <row r="19" spans="2:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B19" s="17">
-        <v>2</v>
-      </c>
-      <c r="C19" s="35" t="s">
+      <c r="D19" s="18"/>
+      <c r="E19" s="18"/>
+      <c r="F19" s="18"/>
+      <c r="G19" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="D19" s="35"/>
-      <c r="E19" s="35"/>
-      <c r="F19" s="35"/>
-      <c r="G19" s="18" t="s">
+      <c r="H19" s="16"/>
+      <c r="I19" s="16"/>
+      <c r="J19" s="16"/>
+      <c r="K19" s="16"/>
+      <c r="L19" s="16"/>
+      <c r="M19" s="16"/>
+      <c r="N19" s="16"/>
+      <c r="O19" s="16"/>
+    </row>
+    <row r="20" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B20" s="7">
+        <v>3</v>
+      </c>
+      <c r="C20" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="H19" s="18"/>
-      <c r="I19" s="18"/>
-      <c r="J19" s="18"/>
-      <c r="K19" s="18"/>
-      <c r="L19" s="18"/>
-      <c r="M19" s="18"/>
-      <c r="N19" s="18"/>
-      <c r="O19" s="18"/>
-    </row>
-    <row r="20" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B20" s="17">
-        <v>3</v>
-      </c>
-      <c r="C20" s="37" t="s">
+      <c r="D20" s="17"/>
+      <c r="E20" s="17"/>
+      <c r="F20" s="17"/>
+      <c r="G20" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="D20" s="37"/>
-      <c r="E20" s="37"/>
-      <c r="F20" s="37"/>
-      <c r="G20" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="H20" s="18"/>
-      <c r="I20" s="18"/>
-      <c r="J20" s="18"/>
-      <c r="K20" s="18"/>
-      <c r="L20" s="18"/>
-      <c r="M20" s="18"/>
-      <c r="N20" s="18"/>
-      <c r="O20" s="18"/>
+      <c r="H20" s="16"/>
+      <c r="I20" s="16"/>
+      <c r="J20" s="16"/>
+      <c r="K20" s="16"/>
+      <c r="L20" s="16"/>
+      <c r="M20" s="16"/>
+      <c r="N20" s="16"/>
+      <c r="O20" s="16"/>
     </row>
     <row r="21" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B21" s="17">
+      <c r="B21" s="7">
         <v>4</v>
       </c>
-      <c r="C21" s="38"/>
-      <c r="D21" s="39"/>
-      <c r="E21" s="39"/>
-      <c r="F21" s="40"/>
-      <c r="G21" s="18"/>
-      <c r="H21" s="18"/>
-      <c r="I21" s="18"/>
-      <c r="J21" s="18"/>
-      <c r="K21" s="18"/>
-      <c r="L21" s="18"/>
-      <c r="M21" s="18"/>
-      <c r="N21" s="18"/>
-      <c r="O21" s="18"/>
+      <c r="C21" s="13"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="14"/>
+      <c r="F21" s="15"/>
+      <c r="G21" s="16"/>
+      <c r="H21" s="16"/>
+      <c r="I21" s="16"/>
+      <c r="J21" s="16"/>
+      <c r="K21" s="16"/>
+      <c r="L21" s="16"/>
+      <c r="M21" s="16"/>
+      <c r="N21" s="16"/>
+      <c r="O21" s="16"/>
     </row>
     <row r="22" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B22" s="41">
+      <c r="B22" s="12">
         <v>5</v>
       </c>
-      <c r="C22" s="37"/>
-      <c r="D22" s="37"/>
-      <c r="E22" s="37"/>
-      <c r="F22" s="37"/>
-      <c r="G22" s="18"/>
-      <c r="H22" s="18"/>
-      <c r="I22" s="18"/>
-      <c r="J22" s="18"/>
-      <c r="K22" s="18"/>
-      <c r="L22" s="18"/>
-      <c r="M22" s="18"/>
-      <c r="N22" s="18"/>
-      <c r="O22" s="18"/>
+      <c r="C22" s="17"/>
+      <c r="D22" s="17"/>
+      <c r="E22" s="17"/>
+      <c r="F22" s="17"/>
+      <c r="G22" s="16"/>
+      <c r="H22" s="16"/>
+      <c r="I22" s="16"/>
+      <c r="J22" s="16"/>
+      <c r="K22" s="16"/>
+      <c r="L22" s="16"/>
+      <c r="M22" s="16"/>
+      <c r="N22" s="16"/>
+      <c r="O22" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="36">
+    <mergeCell ref="B7:J7"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:L2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="H3:L3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="H4:L4"/>
+    <mergeCell ref="D6:J6"/>
+    <mergeCell ref="C17:F17"/>
+    <mergeCell ref="G17:O17"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="B13:C14"/>
+    <mergeCell ref="D13:K14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="H15:K15"/>
     <mergeCell ref="C21:F21"/>
     <mergeCell ref="G21:O21"/>
     <mergeCell ref="C22:F22"/>
@@ -1181,32 +1204,6 @@
     <mergeCell ref="G19:O19"/>
     <mergeCell ref="C20:F20"/>
     <mergeCell ref="G20:O20"/>
-    <mergeCell ref="B13:C14"/>
-    <mergeCell ref="D13:K14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="H15:K15"/>
-    <mergeCell ref="C17:F17"/>
-    <mergeCell ref="G17:O17"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="C8:E8"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="H4:L4"/>
-    <mergeCell ref="D6:J6"/>
-    <mergeCell ref="B7:J7"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="H2:L2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="H3:L3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/test_cases/LS-S3-PE-10-01.xlsx
+++ b/test_cases/LS-S3-PE-10-01.xlsx
@@ -1,13 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerem\Documents\GitHub\TestingAplicaciones-Los_Sintra-TPO\test_cases\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB478567-EEB1-43A8-B4F4-CC5EE9D6295C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="CP-01" sheetId="1" r:id="rId4"/>
-    <sheet state="visible" name="CP-02" sheetId="2" r:id="rId5"/>
+    <sheet name="CP-01" sheetId="1" r:id="rId1"/>
+    <sheet name="CP-02" sheetId="2" r:id="rId2"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId6" roundtripDataSignature="AMtx7mjrpV/gxOU00V9ee1tWSdVuiEuqDg=="/>
@@ -112,87 +121,90 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="15">
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
     </font>
-    <font/>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
     <font>
       <b/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
     <font>
       <b/>
-      <sz val="12.0"/>
+      <sz val="12"/>
       <color theme="0"/>
       <name val="Calibri"/>
     </font>
     <font>
       <b/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
     </font>
     <font>
       <b/>
       <u/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="8.0"/>
+      <sz val="8"/>
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
     <font>
       <b/>
       <u/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="14.0"/>
+      <sz val="14"/>
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
     <font>
       <b/>
       <u/>
-      <sz val="8.0"/>
+      <sz val="8"/>
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="9.0"/>
+      <sz val="9"/>
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="12.0"/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
@@ -202,7 +214,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -212,19 +224,28 @@
     </fill>
   </fills>
   <borders count="13">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
+      <right/>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
+      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
@@ -234,14 +255,18 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -256,11 +281,16 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -272,169 +302,191 @@
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
+      <right/>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
+      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
+      <right/>
+      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
+      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
+      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+  <cellXfs count="40">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="1" fillId="2" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="7" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="4" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="4" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="5" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="4" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="4" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="7" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="8" fillId="2" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="9" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="8" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="7" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="10" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="11" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="12" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="1" fillId="2" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -624,307 +676,323 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="B2:O1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="4" width="10.71"/>
-    <col customWidth="1" min="5" max="5" width="19.43"/>
-    <col customWidth="1" min="6" max="11" width="10.71"/>
-    <col customWidth="1" min="12" max="12" width="26.43"/>
-    <col customWidth="1" min="13" max="13" width="4.57"/>
-    <col customWidth="1" min="14" max="14" width="4.86"/>
-    <col customWidth="1" min="15" max="15" width="4.71"/>
-    <col customWidth="1" min="16" max="26" width="10.71"/>
+    <col min="1" max="4" width="10.6640625" customWidth="1"/>
+    <col min="5" max="5" width="19.44140625" customWidth="1"/>
+    <col min="6" max="11" width="10.6640625" customWidth="1"/>
+    <col min="12" max="12" width="26.44140625" customWidth="1"/>
+    <col min="13" max="13" width="4.5546875" customWidth="1"/>
+    <col min="14" max="14" width="4.88671875" customWidth="1"/>
+    <col min="15" max="15" width="4.6640625" customWidth="1"/>
+    <col min="16" max="26" width="10.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" ht="19.5" customHeight="1">
-      <c r="B2" s="1" t="s">
+    <row r="2" spans="2:13" ht="19.5" customHeight="1">
+      <c r="B2" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="3" t="s">
+      <c r="C2" s="13"/>
+      <c r="D2" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="2"/>
-      <c r="F2" s="1" t="s">
+      <c r="E2" s="13"/>
+      <c r="F2" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="2"/>
-      <c r="H2" s="3" t="s">
+      <c r="G2" s="13"/>
+      <c r="H2" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
-      <c r="L2" s="2"/>
-      <c r="M2" s="5"/>
+      <c r="I2" s="15"/>
+      <c r="J2" s="15"/>
+      <c r="K2" s="15"/>
+      <c r="L2" s="13"/>
+      <c r="M2" s="1"/>
     </row>
-    <row r="3">
-      <c r="B3" s="1" t="s">
+    <row r="3" spans="2:13" ht="14.4">
+      <c r="B3" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="3" t="s">
+      <c r="C3" s="13"/>
+      <c r="D3" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="2"/>
-      <c r="F3" s="1" t="s">
+      <c r="E3" s="13"/>
+      <c r="F3" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="2"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="4"/>
-      <c r="L3" s="2"/>
-      <c r="M3" s="7"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="16"/>
+      <c r="I3" s="15"/>
+      <c r="J3" s="15"/>
+      <c r="K3" s="15"/>
+      <c r="L3" s="13"/>
+      <c r="M3" s="2"/>
     </row>
-    <row r="4">
-      <c r="B4" s="8" t="s">
+    <row r="4" spans="2:13" ht="14.4">
+      <c r="B4" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="2"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="10" t="s">
+      <c r="C4" s="13"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="2"/>
-      <c r="H4" s="11" t="s">
+      <c r="G4" s="13"/>
+      <c r="H4" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
-      <c r="K4" s="4"/>
-      <c r="L4" s="2"/>
-      <c r="M4" s="7"/>
+      <c r="I4" s="15"/>
+      <c r="J4" s="15"/>
+      <c r="K4" s="15"/>
+      <c r="L4" s="13"/>
+      <c r="M4" s="2"/>
     </row>
-    <row r="6">
-      <c r="B6" s="12" t="s">
+    <row r="6" spans="2:13" ht="57.6">
+      <c r="B6" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="13" t="s">
+      <c r="C6" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="14"/>
-      <c r="K6" s="15"/>
-      <c r="L6" s="15"/>
+      <c r="D6" s="23"/>
+      <c r="E6" s="22"/>
+      <c r="F6" s="22"/>
+      <c r="G6" s="22"/>
+      <c r="H6" s="22"/>
+      <c r="I6" s="22"/>
+      <c r="J6" s="22"/>
+      <c r="K6" s="5"/>
+      <c r="L6" s="5"/>
     </row>
-    <row r="7">
-      <c r="B7" s="16"/>
-      <c r="K7" s="15"/>
-      <c r="L7" s="15"/>
+    <row r="7" spans="2:13" ht="14.4">
+      <c r="B7" s="21"/>
+      <c r="C7" s="22"/>
+      <c r="D7" s="22"/>
+      <c r="E7" s="22"/>
+      <c r="F7" s="22"/>
+      <c r="G7" s="22"/>
+      <c r="H7" s="22"/>
+      <c r="I7" s="22"/>
+      <c r="J7" s="22"/>
+      <c r="K7" s="5"/>
+      <c r="L7" s="5"/>
     </row>
-    <row r="8">
-      <c r="B8" s="17" t="s">
+    <row r="8" spans="2:13" ht="14.4">
+      <c r="B8" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="10" t="s">
+      <c r="C8" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="4"/>
-      <c r="E8" s="2"/>
-      <c r="L8" s="15"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="13"/>
+      <c r="L8" s="5"/>
     </row>
-    <row r="9">
-      <c r="B9" s="18">
-        <v>1.0</v>
-      </c>
-      <c r="C9" s="19" t="s">
+    <row r="9" spans="2:13" ht="14.4">
+      <c r="B9" s="7">
+        <v>1</v>
+      </c>
+      <c r="C9" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="4"/>
-      <c r="E9" s="2"/>
-      <c r="L9" s="20"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="13"/>
+      <c r="L9" s="8"/>
     </row>
-    <row r="10">
-      <c r="B10" s="18">
-        <v>2.0</v>
-      </c>
-      <c r="C10" s="19" t="s">
+    <row r="10" spans="2:13" ht="14.4">
+      <c r="B10" s="7">
+        <v>2</v>
+      </c>
+      <c r="C10" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="D10" s="4"/>
-      <c r="E10" s="2"/>
-      <c r="L10" s="20"/>
+      <c r="D10" s="15"/>
+      <c r="E10" s="13"/>
+      <c r="L10" s="8"/>
     </row>
-    <row r="11">
-      <c r="B11" s="21">
-        <v>3.0</v>
-      </c>
-      <c r="C11" s="19"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="2"/>
-      <c r="L11" s="20"/>
+    <row r="11" spans="2:13" ht="14.4">
+      <c r="B11" s="9">
+        <v>3</v>
+      </c>
+      <c r="C11" s="33"/>
+      <c r="D11" s="15"/>
+      <c r="E11" s="13"/>
+      <c r="L11" s="8"/>
     </row>
-    <row r="12">
-      <c r="B12" s="22"/>
-      <c r="C12" s="22"/>
-      <c r="D12" s="22"/>
-      <c r="E12" s="22"/>
+    <row r="12" spans="2:13" ht="14.4">
+      <c r="B12" s="10"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
     </row>
-    <row r="13">
-      <c r="B13" s="23" t="s">
+    <row r="13" spans="2:13" ht="14.4">
+      <c r="B13" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="C13" s="24"/>
-      <c r="D13" s="25" t="s">
+      <c r="C13" s="25"/>
+      <c r="D13" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="E13" s="26"/>
-      <c r="F13" s="26"/>
-      <c r="G13" s="26"/>
-      <c r="H13" s="26"/>
-      <c r="I13" s="26"/>
-      <c r="J13" s="26"/>
-      <c r="K13" s="24"/>
+      <c r="E13" s="29"/>
+      <c r="F13" s="29"/>
+      <c r="G13" s="29"/>
+      <c r="H13" s="29"/>
+      <c r="I13" s="29"/>
+      <c r="J13" s="29"/>
+      <c r="K13" s="25"/>
     </row>
-    <row r="14">
-      <c r="B14" s="27"/>
-      <c r="C14" s="28"/>
-      <c r="D14" s="27"/>
-      <c r="E14" s="29"/>
-      <c r="F14" s="29"/>
-      <c r="G14" s="29"/>
-      <c r="H14" s="29"/>
-      <c r="I14" s="29"/>
-      <c r="J14" s="29"/>
-      <c r="K14" s="28"/>
+    <row r="14" spans="2:13" ht="14.4">
+      <c r="B14" s="26"/>
+      <c r="C14" s="27"/>
+      <c r="D14" s="26"/>
+      <c r="E14" s="30"/>
+      <c r="F14" s="30"/>
+      <c r="G14" s="30"/>
+      <c r="H14" s="30"/>
+      <c r="I14" s="30"/>
+      <c r="J14" s="30"/>
+      <c r="K14" s="27"/>
     </row>
-    <row r="15">
-      <c r="B15" s="30" t="s">
+    <row r="15" spans="2:13" ht="14.4">
+      <c r="B15" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="C15" s="2"/>
-      <c r="D15" s="31" t="s">
+      <c r="C15" s="13"/>
+      <c r="D15" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="E15" s="2"/>
-      <c r="F15" s="30" t="s">
+      <c r="E15" s="13"/>
+      <c r="F15" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="G15" s="2"/>
+      <c r="G15" s="13"/>
       <c r="H15" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="I15" s="4"/>
-      <c r="J15" s="4"/>
-      <c r="K15" s="2"/>
+      <c r="I15" s="15"/>
+      <c r="J15" s="15"/>
+      <c r="K15" s="13"/>
     </row>
-    <row r="16">
-      <c r="I16" s="33"/>
-      <c r="J16" s="33"/>
+    <row r="16" spans="2:13" ht="14.4">
+      <c r="I16" s="11"/>
+      <c r="J16" s="11"/>
     </row>
-    <row r="17">
-      <c r="B17" s="12" t="s">
+    <row r="17" spans="2:15" ht="14.4">
+      <c r="B17" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C17" s="34" t="s">
+      <c r="C17" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="35" t="s">
+      <c r="D17" s="15"/>
+      <c r="E17" s="15"/>
+      <c r="F17" s="13"/>
+      <c r="G17" s="38" t="s">
         <v>23</v>
       </c>
-      <c r="H17" s="4"/>
-      <c r="I17" s="4"/>
-      <c r="J17" s="4"/>
-      <c r="K17" s="4"/>
-      <c r="L17" s="4"/>
-      <c r="M17" s="4"/>
-      <c r="N17" s="4"/>
-      <c r="O17" s="2"/>
+      <c r="H17" s="15"/>
+      <c r="I17" s="15"/>
+      <c r="J17" s="15"/>
+      <c r="K17" s="15"/>
+      <c r="L17" s="15"/>
+      <c r="M17" s="15"/>
+      <c r="N17" s="15"/>
+      <c r="O17" s="13"/>
     </row>
-    <row r="18">
-      <c r="B18" s="18">
-        <v>1.0</v>
-      </c>
-      <c r="C18" s="36" t="s">
+    <row r="18" spans="2:15" ht="14.4">
+      <c r="B18" s="7">
+        <v>1</v>
+      </c>
+      <c r="C18" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="37" t="s">
+      <c r="D18" s="15"/>
+      <c r="E18" s="15"/>
+      <c r="F18" s="13"/>
+      <c r="G18" s="39" t="s">
         <v>25</v>
       </c>
-      <c r="H18" s="4"/>
-      <c r="I18" s="4"/>
-      <c r="J18" s="4"/>
-      <c r="K18" s="4"/>
-      <c r="L18" s="4"/>
-      <c r="M18" s="4"/>
-      <c r="N18" s="4"/>
-      <c r="O18" s="2"/>
+      <c r="H18" s="15"/>
+      <c r="I18" s="15"/>
+      <c r="J18" s="15"/>
+      <c r="K18" s="15"/>
+      <c r="L18" s="15"/>
+      <c r="M18" s="15"/>
+      <c r="N18" s="15"/>
+      <c r="O18" s="13"/>
     </row>
-    <row r="19">
-      <c r="B19" s="18">
-        <v>2.0</v>
-      </c>
-      <c r="C19" s="36" t="s">
+    <row r="19" spans="2:15" ht="14.4">
+      <c r="B19" s="7">
+        <v>2</v>
+      </c>
+      <c r="C19" s="34" t="s">
         <v>26</v>
       </c>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="19" t="s">
+      <c r="D19" s="15"/>
+      <c r="E19" s="15"/>
+      <c r="F19" s="13"/>
+      <c r="G19" s="33" t="s">
         <v>27</v>
       </c>
-      <c r="H19" s="4"/>
-      <c r="I19" s="4"/>
-      <c r="J19" s="4"/>
-      <c r="K19" s="4"/>
-      <c r="L19" s="4"/>
-      <c r="M19" s="4"/>
-      <c r="N19" s="4"/>
-      <c r="O19" s="2"/>
+      <c r="H19" s="15"/>
+      <c r="I19" s="15"/>
+      <c r="J19" s="15"/>
+      <c r="K19" s="15"/>
+      <c r="L19" s="15"/>
+      <c r="M19" s="15"/>
+      <c r="N19" s="15"/>
+      <c r="O19" s="13"/>
     </row>
-    <row r="20">
-      <c r="B20" s="18">
-        <v>3.0</v>
-      </c>
-      <c r="C20" s="38" t="s">
+    <row r="20" spans="2:15" ht="14.4">
+      <c r="B20" s="7">
+        <v>3</v>
+      </c>
+      <c r="C20" s="35" t="s">
         <v>28</v>
       </c>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="19" t="s">
+      <c r="D20" s="15"/>
+      <c r="E20" s="15"/>
+      <c r="F20" s="13"/>
+      <c r="G20" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="H20" s="4"/>
-      <c r="I20" s="4"/>
-      <c r="J20" s="4"/>
-      <c r="K20" s="4"/>
-      <c r="L20" s="4"/>
-      <c r="M20" s="4"/>
-      <c r="N20" s="4"/>
-      <c r="O20" s="2"/>
+      <c r="H20" s="15"/>
+      <c r="I20" s="15"/>
+      <c r="J20" s="15"/>
+      <c r="K20" s="15"/>
+      <c r="L20" s="15"/>
+      <c r="M20" s="15"/>
+      <c r="N20" s="15"/>
+      <c r="O20" s="13"/>
     </row>
-    <row r="21" ht="15.75" customHeight="1"/>
-    <row r="22" ht="15.75" customHeight="1"/>
-    <row r="23" ht="15.75" customHeight="1"/>
-    <row r="24" ht="15.75" customHeight="1"/>
-    <row r="25" ht="15.75" customHeight="1"/>
-    <row r="26" ht="15.75" customHeight="1"/>
-    <row r="27" ht="15.75" customHeight="1"/>
-    <row r="28" ht="15.75" customHeight="1"/>
-    <row r="29" ht="15.75" customHeight="1"/>
-    <row r="30" ht="15.75" customHeight="1"/>
-    <row r="31" ht="15.75" customHeight="1"/>
-    <row r="32" ht="15.75" customHeight="1"/>
+    <row r="21" spans="2:15" ht="15.75" customHeight="1"/>
+    <row r="22" spans="2:15" ht="15.75" customHeight="1"/>
+    <row r="23" spans="2:15" ht="15.75" customHeight="1"/>
+    <row r="24" spans="2:15" ht="15.75" customHeight="1"/>
+    <row r="25" spans="2:15" ht="15.75" customHeight="1"/>
+    <row r="26" spans="2:15" ht="15.75" customHeight="1"/>
+    <row r="27" spans="2:15" ht="15.75" customHeight="1"/>
+    <row r="28" spans="2:15" ht="15.75" customHeight="1"/>
+    <row r="29" spans="2:15" ht="15.75" customHeight="1"/>
+    <row r="30" spans="2:15" ht="15.75" customHeight="1"/>
+    <row r="31" spans="2:15" ht="15.75" customHeight="1"/>
+    <row r="32" spans="2:15" ht="15.75" customHeight="1"/>
     <row r="33" ht="15.75" customHeight="1"/>
     <row r="34" ht="15.75" customHeight="1"/>
     <row r="35" ht="15.75" customHeight="1"/>
@@ -1895,25 +1963,6 @@
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="32">
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="H2:L2"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="H3:L3"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="H4:L4"/>
-    <mergeCell ref="B7:J7"/>
-    <mergeCell ref="D6:J6"/>
-    <mergeCell ref="B13:C14"/>
-    <mergeCell ref="D13:K14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="H15:K15"/>
-    <mergeCell ref="C11:E11"/>
     <mergeCell ref="C10:E10"/>
     <mergeCell ref="C9:E9"/>
     <mergeCell ref="C8:E8"/>
@@ -1927,25 +1976,40 @@
     <mergeCell ref="G18:O18"/>
     <mergeCell ref="G19:O19"/>
     <mergeCell ref="G20:O20"/>
+    <mergeCell ref="B13:C14"/>
+    <mergeCell ref="D13:K14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="H15:K15"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="H4:L4"/>
+    <mergeCell ref="B7:J7"/>
+    <mergeCell ref="D6:J6"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:L2"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="H3:L3"/>
+    <mergeCell ref="B3:C3"/>
   </mergeCells>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="portrait"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A21:A1000"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="26" width="10.71"/>
+    <col min="1" max="26" width="10.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="21" ht="15.75" customHeight="1"/>
@@ -2929,9 +2993,7 @@
     <row r="999" ht="15.75" customHeight="1"/>
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/test_cases/LS-S3-PE-10-01.xlsx
+++ b/test_cases/LS-S3-PE-10-01.xlsx
@@ -1,22 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerem\Documents\GitHub\TestingAplicaciones-Los_Sintra-TPO\test_cases\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB478567-EEB1-43A8-B4F4-CC5EE9D6295C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
-  <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
-  </bookViews>
   <sheets>
-    <sheet name="CP-01" sheetId="1" r:id="rId1"/>
-    <sheet name="CP-02" sheetId="2" r:id="rId2"/>
+    <sheet state="visible" name="CP-01" sheetId="1" r:id="rId4"/>
+    <sheet state="visible" name="CP-02" sheetId="2" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId6" roundtripDataSignature="AMtx7mjrpV/gxOU00V9ee1tWSdVuiEuqDg=="/>
@@ -121,90 +112,87 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <fonts count="15">
     <font>
-      <sz val="11"/>
+      <sz val="11.0"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="11.0"/>
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
+    <font/>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="11.0"/>
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
     <font>
       <b/>
-      <sz val="12"/>
+      <sz val="12.0"/>
       <color theme="0"/>
       <name val="Calibri"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="11.0"/>
       <color theme="0"/>
       <name val="Calibri"/>
     </font>
     <font>
       <b/>
       <u/>
-      <sz val="11"/>
+      <sz val="11.0"/>
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="11.0"/>
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="8"/>
+      <sz val="8.0"/>
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
     <font>
       <b/>
       <u/>
-      <sz val="11"/>
+      <sz val="11.0"/>
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="14"/>
+      <sz val="14.0"/>
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
     <font>
       <b/>
       <u/>
-      <sz val="8"/>
+      <sz val="8.0"/>
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="9.0"/>
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="10"/>
+      <sz val="10.0"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="12"/>
+      <sz val="12.0"/>
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
@@ -214,7 +202,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125"/>
+      <patternFill patternType="lightGray"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -224,28 +212,19 @@
     </fill>
   </fills>
   <borders count="13">
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
+    <border/>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
-      <right/>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
-      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
@@ -255,18 +234,14 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -281,16 +256,11 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -302,191 +272,169 @@
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
-      <bottom/>
-      <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
-      <bottom/>
-      <diagonal/>
     </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
-      <right/>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
-      <bottom/>
-      <diagonal/>
     </border>
     <border>
-      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
-      <bottom/>
-      <diagonal/>
     </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
-      <right/>
-      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
-      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
-      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="40">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+  <cellXfs count="39">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf borderId="3" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="1" fillId="2" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf borderId="1" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf borderId="1" fillId="0" fontId="7" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="4" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="4" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="5" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="top" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf borderId="4" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf borderId="4" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="top" wrapText="1"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
+    </xf>
+    <xf borderId="6" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="top" wrapText="1"/>
+    </xf>
+    <xf borderId="7" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
+    </xf>
+    <xf borderId="8" fillId="2" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf borderId="9" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="8" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf borderId="7" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="10" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="11" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="12" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="1" fillId="2" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf borderId="1" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf borderId="1" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf borderId="0" fillId="0" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf borderId="1" fillId="0" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="top" wrapText="1"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle xfId="0" name="Normal" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -676,323 +624,307 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:O1000"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <pageSetUpPr/>
+  </sheetPr>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="4" width="10.6640625" customWidth="1"/>
-    <col min="5" max="5" width="19.44140625" customWidth="1"/>
-    <col min="6" max="11" width="10.6640625" customWidth="1"/>
-    <col min="12" max="12" width="26.44140625" customWidth="1"/>
-    <col min="13" max="13" width="4.5546875" customWidth="1"/>
-    <col min="14" max="14" width="4.88671875" customWidth="1"/>
-    <col min="15" max="15" width="4.6640625" customWidth="1"/>
-    <col min="16" max="26" width="10.6640625" customWidth="1"/>
+    <col customWidth="1" min="1" max="4" width="10.71"/>
+    <col customWidth="1" min="5" max="5" width="19.43"/>
+    <col customWidth="1" min="6" max="11" width="10.71"/>
+    <col customWidth="1" min="12" max="12" width="26.43"/>
+    <col customWidth="1" min="13" max="13" width="4.57"/>
+    <col customWidth="1" min="14" max="14" width="4.86"/>
+    <col customWidth="1" min="15" max="15" width="4.71"/>
+    <col customWidth="1" min="16" max="26" width="10.71"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:13" ht="19.5" customHeight="1">
-      <c r="B2" s="12" t="s">
+    <row r="2" ht="19.5" customHeight="1">
+      <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="13"/>
-      <c r="D2" s="14" t="s">
+      <c r="C2" s="2"/>
+      <c r="D2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="13"/>
-      <c r="F2" s="12" t="s">
+      <c r="E2" s="2"/>
+      <c r="F2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="13"/>
-      <c r="H2" s="14" t="s">
+      <c r="G2" s="2"/>
+      <c r="H2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="15"/>
-      <c r="J2" s="15"/>
-      <c r="K2" s="15"/>
-      <c r="L2" s="13"/>
-      <c r="M2" s="1"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="5"/>
     </row>
-    <row r="3" spans="2:13" ht="14.4">
-      <c r="B3" s="12" t="s">
+    <row r="3">
+      <c r="B3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="13"/>
-      <c r="D3" s="14" t="s">
+      <c r="C3" s="2"/>
+      <c r="D3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="13"/>
-      <c r="F3" s="12" t="s">
+      <c r="E3" s="2"/>
+      <c r="F3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="13"/>
-      <c r="H3" s="16"/>
-      <c r="I3" s="15"/>
-      <c r="J3" s="15"/>
-      <c r="K3" s="15"/>
-      <c r="L3" s="13"/>
-      <c r="M3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="7"/>
     </row>
-    <row r="4" spans="2:13" ht="14.4">
-      <c r="B4" s="17" t="s">
+    <row r="4">
+      <c r="B4" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="13"/>
-      <c r="D4" s="18"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="19" t="s">
+      <c r="C4" s="2"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="13"/>
-      <c r="H4" s="20" t="s">
+      <c r="G4" s="2"/>
+      <c r="H4" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="I4" s="15"/>
-      <c r="J4" s="15"/>
-      <c r="K4" s="15"/>
-      <c r="L4" s="13"/>
-      <c r="M4" s="2"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
+      <c r="L4" s="2"/>
+      <c r="M4" s="7"/>
     </row>
-    <row r="6" spans="2:13" ht="57.6">
-      <c r="B6" s="3" t="s">
+    <row r="6">
+      <c r="B6" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="23"/>
-      <c r="E6" s="22"/>
-      <c r="F6" s="22"/>
-      <c r="G6" s="22"/>
-      <c r="H6" s="22"/>
-      <c r="I6" s="22"/>
-      <c r="J6" s="22"/>
-      <c r="K6" s="5"/>
-      <c r="L6" s="5"/>
+      <c r="D6" s="14"/>
+      <c r="K6" s="15"/>
+      <c r="L6" s="15"/>
     </row>
-    <row r="7" spans="2:13" ht="14.4">
-      <c r="B7" s="21"/>
-      <c r="C7" s="22"/>
-      <c r="D7" s="22"/>
-      <c r="E7" s="22"/>
-      <c r="F7" s="22"/>
-      <c r="G7" s="22"/>
-      <c r="H7" s="22"/>
-      <c r="I7" s="22"/>
-      <c r="J7" s="22"/>
-      <c r="K7" s="5"/>
-      <c r="L7" s="5"/>
+    <row r="7">
+      <c r="B7" s="16"/>
+      <c r="K7" s="15"/>
+      <c r="L7" s="15"/>
     </row>
-    <row r="8" spans="2:13" ht="14.4">
-      <c r="B8" s="6" t="s">
+    <row r="8">
+      <c r="B8" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="19" t="s">
+      <c r="C8" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="15"/>
-      <c r="E8" s="13"/>
-      <c r="L8" s="5"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="2"/>
+      <c r="L8" s="15"/>
     </row>
-    <row r="9" spans="2:13" ht="14.4">
-      <c r="B9" s="7">
+    <row r="9">
+      <c r="B9" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="C9" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" s="4"/>
+      <c r="E9" s="2"/>
+      <c r="L9" s="20"/>
+    </row>
+    <row r="10">
+      <c r="B10" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="C10" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" s="4"/>
+      <c r="E10" s="2"/>
+      <c r="L10" s="20"/>
+    </row>
+    <row r="11">
+      <c r="B11" s="21">
+        <v>3.0</v>
+      </c>
+      <c r="C11" s="19"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="2"/>
+      <c r="L11" s="20"/>
+    </row>
+    <row r="12">
+      <c r="B12" s="22"/>
+      <c r="C12" s="22"/>
+      <c r="D12" s="22"/>
+      <c r="E12" s="22"/>
+    </row>
+    <row r="13">
+      <c r="B13" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" s="24"/>
+      <c r="D13" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="E13" s="26"/>
+      <c r="F13" s="26"/>
+      <c r="G13" s="26"/>
+      <c r="H13" s="26"/>
+      <c r="I13" s="26"/>
+      <c r="J13" s="26"/>
+      <c r="K13" s="24"/>
+    </row>
+    <row r="14">
+      <c r="B14" s="27"/>
+      <c r="C14" s="28"/>
+      <c r="D14" s="27"/>
+      <c r="E14" s="29"/>
+      <c r="F14" s="29"/>
+      <c r="G14" s="29"/>
+      <c r="H14" s="29"/>
+      <c r="I14" s="29"/>
+      <c r="J14" s="29"/>
+      <c r="K14" s="28"/>
+    </row>
+    <row r="15">
+      <c r="B15" s="30" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" s="2"/>
+      <c r="D15" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="C9" s="33" t="s">
-        <v>14</v>
-      </c>
-      <c r="D9" s="15"/>
-      <c r="E9" s="13"/>
-      <c r="L9" s="8"/>
-    </row>
-    <row r="10" spans="2:13" ht="14.4">
-      <c r="B10" s="7">
-        <v>2</v>
-      </c>
-      <c r="C10" s="33" t="s">
-        <v>15</v>
-      </c>
-      <c r="D10" s="15"/>
-      <c r="E10" s="13"/>
-      <c r="L10" s="8"/>
-    </row>
-    <row r="11" spans="2:13" ht="14.4">
-      <c r="B11" s="9">
-        <v>3</v>
-      </c>
-      <c r="C11" s="33"/>
-      <c r="D11" s="15"/>
-      <c r="E11" s="13"/>
-      <c r="L11" s="8"/>
-    </row>
-    <row r="12" spans="2:13" ht="14.4">
-      <c r="B12" s="10"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
-    </row>
-    <row r="13" spans="2:13" ht="14.4">
-      <c r="B13" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="C13" s="25"/>
-      <c r="D13" s="28" t="s">
-        <v>17</v>
-      </c>
-      <c r="E13" s="29"/>
-      <c r="F13" s="29"/>
-      <c r="G13" s="29"/>
-      <c r="H13" s="29"/>
-      <c r="I13" s="29"/>
-      <c r="J13" s="29"/>
-      <c r="K13" s="25"/>
-    </row>
-    <row r="14" spans="2:13" ht="14.4">
-      <c r="B14" s="26"/>
-      <c r="C14" s="27"/>
-      <c r="D14" s="26"/>
-      <c r="E14" s="30"/>
-      <c r="F14" s="30"/>
-      <c r="G14" s="30"/>
-      <c r="H14" s="30"/>
-      <c r="I14" s="30"/>
-      <c r="J14" s="30"/>
-      <c r="K14" s="27"/>
-    </row>
-    <row r="15" spans="2:13" ht="14.4">
-      <c r="B15" s="31" t="s">
-        <v>18</v>
-      </c>
-      <c r="C15" s="13"/>
-      <c r="D15" s="36" t="s">
-        <v>1</v>
-      </c>
-      <c r="E15" s="13"/>
-      <c r="F15" s="31" t="s">
+      <c r="E15" s="2"/>
+      <c r="F15" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="G15" s="13"/>
+      <c r="G15" s="2"/>
       <c r="H15" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="I15" s="15"/>
-      <c r="J15" s="15"/>
-      <c r="K15" s="13"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="4"/>
+      <c r="K15" s="2"/>
     </row>
-    <row r="16" spans="2:13" ht="14.4">
-      <c r="I16" s="11"/>
-      <c r="J16" s="11"/>
+    <row r="16">
+      <c r="I16" s="33"/>
+      <c r="J16" s="33"/>
     </row>
-    <row r="17" spans="2:15" ht="14.4">
-      <c r="B17" s="3" t="s">
+    <row r="17">
+      <c r="B17" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="C17" s="37" t="s">
+      <c r="C17" s="34" t="s">
         <v>22</v>
       </c>
-      <c r="D17" s="15"/>
-      <c r="E17" s="15"/>
-      <c r="F17" s="13"/>
-      <c r="G17" s="38" t="s">
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="35" t="s">
         <v>23</v>
       </c>
-      <c r="H17" s="15"/>
-      <c r="I17" s="15"/>
-      <c r="J17" s="15"/>
-      <c r="K17" s="15"/>
-      <c r="L17" s="15"/>
-      <c r="M17" s="15"/>
-      <c r="N17" s="15"/>
-      <c r="O17" s="13"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4"/>
+      <c r="J17" s="4"/>
+      <c r="K17" s="4"/>
+      <c r="L17" s="4"/>
+      <c r="M17" s="4"/>
+      <c r="N17" s="4"/>
+      <c r="O17" s="2"/>
     </row>
-    <row r="18" spans="2:15" ht="14.4">
-      <c r="B18" s="7">
-        <v>1</v>
-      </c>
-      <c r="C18" s="34" t="s">
+    <row r="18">
+      <c r="B18" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="C18" s="36" t="s">
         <v>24</v>
       </c>
-      <c r="D18" s="15"/>
-      <c r="E18" s="15"/>
-      <c r="F18" s="13"/>
-      <c r="G18" s="39" t="s">
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="H18" s="15"/>
-      <c r="I18" s="15"/>
-      <c r="J18" s="15"/>
-      <c r="K18" s="15"/>
-      <c r="L18" s="15"/>
-      <c r="M18" s="15"/>
-      <c r="N18" s="15"/>
-      <c r="O18" s="13"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="4"/>
+      <c r="J18" s="4"/>
+      <c r="K18" s="4"/>
+      <c r="L18" s="4"/>
+      <c r="M18" s="4"/>
+      <c r="N18" s="4"/>
+      <c r="O18" s="2"/>
     </row>
-    <row r="19" spans="2:15" ht="14.4">
-      <c r="B19" s="7">
-        <v>2</v>
-      </c>
-      <c r="C19" s="34" t="s">
+    <row r="19">
+      <c r="B19" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="C19" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="D19" s="15"/>
-      <c r="E19" s="15"/>
-      <c r="F19" s="13"/>
-      <c r="G19" s="33" t="s">
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="H19" s="15"/>
-      <c r="I19" s="15"/>
-      <c r="J19" s="15"/>
-      <c r="K19" s="15"/>
-      <c r="L19" s="15"/>
-      <c r="M19" s="15"/>
-      <c r="N19" s="15"/>
-      <c r="O19" s="13"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="4"/>
+      <c r="J19" s="4"/>
+      <c r="K19" s="4"/>
+      <c r="L19" s="4"/>
+      <c r="M19" s="4"/>
+      <c r="N19" s="4"/>
+      <c r="O19" s="2"/>
     </row>
-    <row r="20" spans="2:15" ht="14.4">
-      <c r="B20" s="7">
-        <v>3</v>
-      </c>
-      <c r="C20" s="35" t="s">
+    <row r="20">
+      <c r="B20" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="C20" s="38" t="s">
         <v>28</v>
       </c>
-      <c r="D20" s="15"/>
-      <c r="E20" s="15"/>
-      <c r="F20" s="13"/>
-      <c r="G20" s="33" t="s">
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="H20" s="15"/>
-      <c r="I20" s="15"/>
-      <c r="J20" s="15"/>
-      <c r="K20" s="15"/>
-      <c r="L20" s="15"/>
-      <c r="M20" s="15"/>
-      <c r="N20" s="15"/>
-      <c r="O20" s="13"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="4"/>
+      <c r="J20" s="4"/>
+      <c r="K20" s="4"/>
+      <c r="L20" s="4"/>
+      <c r="M20" s="4"/>
+      <c r="N20" s="4"/>
+      <c r="O20" s="2"/>
     </row>
-    <row r="21" spans="2:15" ht="15.75" customHeight="1"/>
-    <row r="22" spans="2:15" ht="15.75" customHeight="1"/>
-    <row r="23" spans="2:15" ht="15.75" customHeight="1"/>
-    <row r="24" spans="2:15" ht="15.75" customHeight="1"/>
-    <row r="25" spans="2:15" ht="15.75" customHeight="1"/>
-    <row r="26" spans="2:15" ht="15.75" customHeight="1"/>
-    <row r="27" spans="2:15" ht="15.75" customHeight="1"/>
-    <row r="28" spans="2:15" ht="15.75" customHeight="1"/>
-    <row r="29" spans="2:15" ht="15.75" customHeight="1"/>
-    <row r="30" spans="2:15" ht="15.75" customHeight="1"/>
-    <row r="31" spans="2:15" ht="15.75" customHeight="1"/>
-    <row r="32" spans="2:15" ht="15.75" customHeight="1"/>
+    <row r="21" ht="15.75" customHeight="1"/>
+    <row r="22" ht="15.75" customHeight="1"/>
+    <row r="23" ht="15.75" customHeight="1"/>
+    <row r="24" ht="15.75" customHeight="1"/>
+    <row r="25" ht="15.75" customHeight="1"/>
+    <row r="26" ht="15.75" customHeight="1"/>
+    <row r="27" ht="15.75" customHeight="1"/>
+    <row r="28" ht="15.75" customHeight="1"/>
+    <row r="29" ht="15.75" customHeight="1"/>
+    <row r="30" ht="15.75" customHeight="1"/>
+    <row r="31" ht="15.75" customHeight="1"/>
+    <row r="32" ht="15.75" customHeight="1"/>
     <row r="33" ht="15.75" customHeight="1"/>
     <row r="34" ht="15.75" customHeight="1"/>
     <row r="35" ht="15.75" customHeight="1"/>
@@ -1963,6 +1895,25 @@
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="32">
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:L2"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="H3:L3"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="H4:L4"/>
+    <mergeCell ref="B7:J7"/>
+    <mergeCell ref="D6:J6"/>
+    <mergeCell ref="B13:C14"/>
+    <mergeCell ref="D13:K14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="H15:K15"/>
+    <mergeCell ref="C11:E11"/>
     <mergeCell ref="C10:E10"/>
     <mergeCell ref="C9:E9"/>
     <mergeCell ref="C8:E8"/>
@@ -1976,40 +1927,25 @@
     <mergeCell ref="G18:O18"/>
     <mergeCell ref="G19:O19"/>
     <mergeCell ref="G20:O20"/>
-    <mergeCell ref="B13:C14"/>
-    <mergeCell ref="D13:K14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="H15:K15"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="H4:L4"/>
-    <mergeCell ref="B7:J7"/>
-    <mergeCell ref="D6:J6"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="H2:L2"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="H3:L3"/>
-    <mergeCell ref="B3:C3"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
+  <printOptions/>
+  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A21:A1000"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <pageSetUpPr/>
+  </sheetPr>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="26" width="10.6640625" customWidth="1"/>
+    <col customWidth="1" min="1" max="26" width="10.71"/>
   </cols>
   <sheetData>
     <row r="21" ht="15.75" customHeight="1"/>
@@ -2993,7 +2929,9 @@
     <row r="999" ht="15.75" customHeight="1"/>
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
+  <printOptions/>
+  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="landscape"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>